--- a/data/trans_dic/P16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Edad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1798,7 +1798,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Edad-trans_dic.xlsx
@@ -711,32 +711,32 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001781044735496503</v>
+        <v>0.001811188619039484</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.01195890754833656</v>
+        <v>0.01219443245645313</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002374176991979476</v>
+        <v>0.002332604950960002</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009234302257020465</v>
+        <v>0.009565833248403014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007800579672413966</v>
+        <v>0.007793706014746482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003263307251470744</v>
+        <v>0.003143603192722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005911740710115948</v>
+        <v>0.006693726145170529</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01168823638716724</v>
+        <v>0.01297085983761126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01501079909244183</v>
+        <v>0.0148792576067711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02300481497001022</v>
+        <v>0.01935378602398666</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.04061087978618724</v>
+        <v>0.04019157263103614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02293412994893147</v>
+        <v>0.02127432128465172</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04198001223179837</v>
+        <v>0.0398400830471269</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03407873591201752</v>
+        <v>0.03391314896165438</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02212889317856359</v>
+        <v>0.02191098408895929</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01524450842367009</v>
+        <v>0.01412302917508113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02227613330158827</v>
+        <v>0.02448684143876968</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01454004550217708</v>
+        <v>0.0160720907354851</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.02505912804877925</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01973630688730384</v>
+        <v>0.01973630688730385</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01710414086144408</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009806239046171715</v>
+        <v>0.009279038594199481</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01382999191739986</v>
+        <v>0.01390711599858014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009898602555983509</v>
+        <v>0.01017487024985244</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005067952004709955</v>
+        <v>0.00547768759562573</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007945067259637506</v>
+        <v>0.008545027798207795</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01434850756325896</v>
+        <v>0.01339921163473456</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01491602792889667</v>
+        <v>0.01499958908785243</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00951374888030517</v>
+        <v>0.009174540297196266</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01107471877050358</v>
+        <v>0.01102955755785521</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01660735922152623</v>
+        <v>0.01585173602386236</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01491365406875962</v>
+        <v>0.01420349510212773</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008740305747551851</v>
+        <v>0.009631582932564031</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02762562848490629</v>
+        <v>0.02909805183415835</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04291763687650858</v>
+        <v>0.04312715933009689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03209278285471478</v>
+        <v>0.03198853990983753</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03546311273150132</v>
+        <v>0.03689368922380615</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02839317214038323</v>
+        <v>0.02988491998889157</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03971009975054147</v>
+        <v>0.04097604637096347</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03996766412525524</v>
+        <v>0.04019911446506916</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03762080447094593</v>
+        <v>0.0398725920143281</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02519234929396041</v>
+        <v>0.02455302901458185</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03672482766081302</v>
+        <v>0.0347267673435039</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03160199358305527</v>
+        <v>0.03036846337307382</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02932084394229392</v>
+        <v>0.02947847954179797</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.02929933693556485</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02943199494055737</v>
+        <v>0.02943199494055736</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03943848104868915</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006493373914120713</v>
+        <v>0.005989495580500536</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0167818482331511</v>
+        <v>0.01632980837640496</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01778603222436542</v>
+        <v>0.01731198533434573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01867276946592515</v>
+        <v>0.01733535143693322</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02664539142981214</v>
+        <v>0.02605417893877241</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04071957601089553</v>
+        <v>0.0417385622509568</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03954031848908228</v>
+        <v>0.03865601938245502</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03478181016112821</v>
+        <v>0.03496098797961532</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0190538595859678</v>
+        <v>0.01901365813775624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03354311445302175</v>
+        <v>0.03335042735713026</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03263783413264464</v>
+        <v>0.03236837629921661</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02915153200591432</v>
+        <v>0.02927581671506515</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02641415524338507</v>
+        <v>0.02632325049891197</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04722648683933508</v>
+        <v>0.04719322856788233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04455832079525273</v>
+        <v>0.04510255516619315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04509626731052326</v>
+        <v>0.04555958043526984</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05641564108318834</v>
+        <v>0.05719098897718034</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07631059885263622</v>
+        <v>0.07627255903398365</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07582035870055689</v>
+        <v>0.07426643492887397</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06303640799553048</v>
+        <v>0.06297806856083865</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03727303190828933</v>
+        <v>0.03645162726775977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05687727546199629</v>
+        <v>0.05673008816908534</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05439619259738229</v>
+        <v>0.05496650120445565</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04908029462561972</v>
+        <v>0.05008409370508045</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.04072788097836795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06405176649964661</v>
+        <v>0.0640517664996466</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06898063261273635</v>
@@ -1089,7 +1089,7 @@
         <v>0.07726580681613378</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07853830305882568</v>
+        <v>0.07853830305882567</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04939514135545907</v>
@@ -1101,7 +1101,7 @@
         <v>0.05903956573264694</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0714777874845543</v>
+        <v>0.07147778748455431</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01700265195098816</v>
+        <v>0.01637823647014828</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02720702937195335</v>
+        <v>0.02656426674266647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02715453361033588</v>
+        <v>0.02638446586472375</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04736710036773285</v>
+        <v>0.04549577189831179</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04825341370607013</v>
+        <v>0.0494065959331441</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.066805232348574</v>
+        <v>0.06604693118374569</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05656025496385623</v>
+        <v>0.0591258468169446</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06297821992705135</v>
+        <v>0.06313250677165726</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03666978390435614</v>
+        <v>0.03710140774887985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05165827575133323</v>
+        <v>0.05159267097542341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04653726153427861</v>
+        <v>0.04684969306554458</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06000673810092533</v>
+        <v>0.05908306494787861</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04940898691210041</v>
+        <v>0.04916183254849039</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06293880230511827</v>
+        <v>0.06203953896534811</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06039375272511032</v>
+        <v>0.05828462295968534</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08645173796460526</v>
+        <v>0.08490739632045284</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0920986419051877</v>
+        <v>0.09206430561832758</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1140876146325212</v>
+        <v>0.1149902509546868</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1026165796066067</v>
+        <v>0.09939722666391762</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09574428200973659</v>
+        <v>0.09654625382272153</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06284290547692183</v>
+        <v>0.06357409576945511</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08166962697204033</v>
+        <v>0.08277950973670316</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0748086217141898</v>
+        <v>0.07462898439550317</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08528165170658714</v>
+        <v>0.0847303757563769</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.0624871136493249</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05735497099350298</v>
+        <v>0.05735497099350297</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07703005756358784</v>
@@ -1237,7 +1237,7 @@
         <v>0.09778236205750605</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08970915387884704</v>
+        <v>0.08970915387884705</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02500062223413309</v>
+        <v>0.02579957652732687</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02000068646338443</v>
+        <v>0.01937132219953543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04046912979420686</v>
+        <v>0.04040259412721817</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04275647574651933</v>
+        <v>0.04237633747865743</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05365077452663933</v>
+        <v>0.05502814828939356</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08020733588938687</v>
+        <v>0.08147716605258472</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1020893924733618</v>
+        <v>0.1016194638019828</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1011940710488344</v>
+        <v>0.1022316231103962</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04429628425911638</v>
+        <v>0.04593038181788284</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05544246405774771</v>
+        <v>0.05583987581067821</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0799477953197176</v>
+        <v>0.07996135764646453</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07709799103963606</v>
+        <v>0.07692829706190629</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06620849157059137</v>
+        <v>0.06440266101028426</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05405309807847766</v>
+        <v>0.0551033090043801</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0892928443401156</v>
+        <v>0.08909893694221431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07662261026343889</v>
+        <v>0.07699244415416166</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1051140082925475</v>
+        <v>0.1070552444664679</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1373733864397076</v>
+        <v>0.1385577798463488</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.163990897945566</v>
+        <v>0.1633352483946956</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1434074091003639</v>
+        <v>0.143837259766529</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07803117588982705</v>
+        <v>0.07862748347031516</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09127641038307058</v>
+        <v>0.09128325904955427</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1183722836437631</v>
+        <v>0.1178865168690514</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1035305618703173</v>
+        <v>0.1036114667713878</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.08533991476583581</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09603933881334968</v>
+        <v>0.09603933881334971</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02766298285188354</v>
+        <v>0.02932403837305713</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02934208628366085</v>
+        <v>0.02978052484234412</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02269172446509092</v>
+        <v>0.0220543483825119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03253957457975496</v>
+        <v>0.0327113510386768</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08166652998237683</v>
+        <v>0.08003215801986627</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07737945511636646</v>
+        <v>0.07982570801200173</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09507628829867051</v>
+        <v>0.09375628554047308</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1159429084157107</v>
+        <v>0.1163748815428518</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06120259555784768</v>
+        <v>0.06293790958532378</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06219731634206208</v>
+        <v>0.06213305853140343</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06660510498110554</v>
+        <v>0.06554408631504863</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08164838805167164</v>
+        <v>0.08132298975419729</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07670110491034092</v>
+        <v>0.08115241298958645</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09101145229523262</v>
+        <v>0.08938070901949369</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06578111149436895</v>
+        <v>0.06737255435376091</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07002381003192958</v>
+        <v>0.06805471945333778</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1431977965893451</v>
+        <v>0.145906859557785</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1439353390594975</v>
+        <v>0.1467237341902648</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1630984303799923</v>
+        <v>0.1632351613279234</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1656680929891845</v>
+        <v>0.1644811571379422</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.104582463914589</v>
+        <v>0.1044021641399966</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1067075585205176</v>
+        <v>0.107030791460693</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1087664473817387</v>
+        <v>0.1119133931374844</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1122174284922242</v>
+        <v>0.1134024261049201</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.06066433531187487</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08083612520027501</v>
+        <v>0.080836125200275</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.08184617329225269</v>
@@ -1509,7 +1509,7 @@
         <v>0.09810517662475379</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1344764264720092</v>
+        <v>0.1344764264720093</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03886080023046309</v>
+        <v>0.03978853080307781</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04411618488469052</v>
+        <v>0.04571315028943665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03771809574032583</v>
+        <v>0.03650399198719663</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0577369050571592</v>
+        <v>0.05671790910897274</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05505463198759727</v>
+        <v>0.05443886935180881</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1037286563340169</v>
+        <v>0.09912195184956939</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08756396893060912</v>
+        <v>0.08796597477436593</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1465743159507792</v>
+        <v>0.1444789958974317</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05538338116347155</v>
+        <v>0.05557060662200415</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08718205358078959</v>
+        <v>0.0872972115523198</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07458013829588266</v>
+        <v>0.07444493111741218</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1145516881323533</v>
+        <v>0.1142601090792108</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1119524796964494</v>
+        <v>0.1108097571327805</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1207112060657788</v>
+        <v>0.1265912781893178</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09022833671925816</v>
+        <v>0.09440691013379114</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1093617378128194</v>
+        <v>0.1073716249225981</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.121438031388749</v>
+        <v>0.1177007252793134</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1734125748109139</v>
+        <v>0.1758535024867569</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1591206081875625</v>
+        <v>0.1655314827615412</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1981880358420793</v>
+        <v>0.2014203735619952</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1014310899797793</v>
+        <v>0.104955649249679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1423391672891401</v>
+        <v>0.141018239117364</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1248748444065094</v>
+        <v>0.1253865690655568</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1541925582010265</v>
+        <v>0.1543531371088323</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.03481221709572157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.04260220142732761</v>
+        <v>0.0426022014273276</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.05330795268054919</v>
@@ -1633,7 +1633,7 @@
         <v>0.07635883703637372</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.08416877020835269</v>
+        <v>0.08416877020835266</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03977475787123594</v>
@@ -1645,7 +1645,7 @@
         <v>0.05603516335786481</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.06395881662727775</v>
+        <v>0.06395881662727776</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02673937484947642</v>
+        <v>0.02713357235955597</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02908121080103974</v>
+        <v>0.02891074587079791</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03620433916357802</v>
+        <v>0.03639710590812335</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06338367757465636</v>
+        <v>0.06230076659572482</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06721206316001878</v>
+        <v>0.06719145952517991</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07720123231909302</v>
+        <v>0.07788883169725812</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04755216702335444</v>
+        <v>0.0472300922148439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05058417854181586</v>
+        <v>0.05083381690630415</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05921133505176703</v>
+        <v>0.05873353348297853</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04079713072250962</v>
+        <v>0.04088874018502649</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0414180542750661</v>
+        <v>0.04165267043984326</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04967828967545175</v>
+        <v>0.05037896737454911</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08095250038921865</v>
+        <v>0.08042195249927023</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0854514299740696</v>
+        <v>0.08623277123905633</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09178685948479684</v>
+        <v>0.09242167545615469</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0588560159562462</v>
+        <v>0.05836757455631206</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06169786487479319</v>
+        <v>0.06145175399198887</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06920344312363322</v>
+        <v>0.06915528454445774</v>
       </c>
     </row>
     <row r="28">
@@ -2010,32 +2010,32 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>5591</v>
+        <v>5701</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3655</v>
+        <v>3786</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7501</v>
+        <v>7494</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2880</v>
+        <v>2774</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4819</v>
+        <v>5457</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2049,38 +2049,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5775</v>
+        <v>6408</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6801</v>
+        <v>6742</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9650</v>
+        <v>8118</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>18985</v>
+        <v>18789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9847</v>
+        <v>9134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16614</v>
+        <v>15767</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12354</v>
+        <v>12294</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21278</v>
+        <v>21069</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13452</v>
+        <v>12463</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18160</v>
+        <v>19962</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11200</v>
+        <v>12380</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7212</v>
+        <v>6825</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9491</v>
+        <v>9544</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5845</v>
+        <v>6008</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2417</v>
+        <v>2612</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4970</v>
+        <v>5345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8741</v>
+        <v>8163</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8406</v>
+        <v>8453</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4767</v>
+        <v>4597</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15072</v>
+        <v>15011</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21514</v>
+        <v>20535</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>17211</v>
+        <v>16391</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8548</v>
+        <v>9419</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20318</v>
+        <v>21401</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29452</v>
+        <v>29595</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18951</v>
+        <v>18889</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16912</v>
+        <v>17594</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17760</v>
+        <v>18693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24192</v>
+        <v>24963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22524</v>
+        <v>22654</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18851</v>
+        <v>19979</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34286</v>
+        <v>33416</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>47575</v>
+        <v>44987</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>36470</v>
+        <v>35046</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28675</v>
+        <v>28829</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4140</v>
+        <v>3819</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11413</v>
+        <v>11105</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11901</v>
+        <v>11583</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11593</v>
+        <v>10762</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18378</v>
+        <v>17971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28785</v>
+        <v>29506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26151</v>
+        <v>25567</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21639</v>
+        <v>21751</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25292</v>
+        <v>25239</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>46523</v>
+        <v>46256</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>43424</v>
+        <v>43066</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36235</v>
+        <v>36389</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16843</v>
+        <v>16785</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32117</v>
+        <v>32094</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29814</v>
+        <v>30178</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27997</v>
+        <v>28285</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38912</v>
+        <v>39447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>53945</v>
+        <v>53918</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50147</v>
+        <v>49119</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39217</v>
+        <v>39181</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49476</v>
+        <v>48386</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>78887</v>
+        <v>78683</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>72373</v>
+        <v>73132</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>61006</v>
+        <v>62253</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8827</v>
+        <v>8503</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16722</v>
+        <v>16327</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17543</v>
+        <v>17046</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33186</v>
+        <v>31875</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24881</v>
+        <v>25476</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41032</v>
+        <v>40567</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>36712</v>
+        <v>38377</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>46408</v>
+        <v>46521</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>37945</v>
+        <v>38392</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>63479</v>
+        <v>63398</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>60272</v>
+        <v>60676</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>86260</v>
+        <v>84932</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25651</v>
+        <v>25522</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38683</v>
+        <v>38131</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39017</v>
+        <v>37655</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60570</v>
+        <v>59488</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47490</v>
+        <v>47472</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>70074</v>
+        <v>70628</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>66606</v>
+        <v>64516</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>70553</v>
+        <v>71144</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>65029</v>
+        <v>65786</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>100358</v>
+        <v>101722</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>96887</v>
+        <v>96654</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>122593</v>
+        <v>121800</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9668</v>
+        <v>9977</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8567</v>
+        <v>8298</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19341</v>
+        <v>19309</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26011</v>
+        <v>25780</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21674</v>
+        <v>22231</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>35917</v>
+        <v>36485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>50723</v>
+        <v>50490</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>61402</v>
+        <v>62031</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>35025</v>
+        <v>36317</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>48576</v>
+        <v>48924</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>77930</v>
+        <v>77944</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>93684</v>
+        <v>93478</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25603</v>
+        <v>24905</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23153</v>
+        <v>23603</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42675</v>
+        <v>42582</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>46614</v>
+        <v>46839</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42465</v>
+        <v>43249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>61516</v>
+        <v>62046</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>81479</v>
+        <v>81153</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>87015</v>
+        <v>87276</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>61699</v>
+        <v>62170</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>79971</v>
+        <v>79977</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>115385</v>
+        <v>114912</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>125803</v>
+        <v>125901</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>8094</v>
+        <v>8580</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9090</v>
+        <v>9226</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7587</v>
+        <v>7373</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>13246</v>
+        <v>13316</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>28006</v>
+        <v>27446</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>27320</v>
+        <v>28183</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>35916</v>
+        <v>35418</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>50918</v>
+        <v>51108</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>38895</v>
+        <v>39998</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>41227</v>
+        <v>41185</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>47429</v>
+        <v>46673</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>69095</v>
+        <v>68819</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22441</v>
+        <v>23744</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28194</v>
+        <v>27689</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21993</v>
+        <v>22525</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>28505</v>
+        <v>27704</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>49107</v>
+        <v>50036</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>50818</v>
+        <v>51802</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>61612</v>
+        <v>61664</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>72756</v>
+        <v>72235</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>66464</v>
+        <v>66349</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>70731</v>
+        <v>70945</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>77452</v>
+        <v>79693</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>94964</v>
+        <v>95966</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8156</v>
+        <v>8351</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>10987</v>
+        <v>11384</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9693</v>
+        <v>9381</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17881</v>
+        <v>17566</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18383</v>
+        <v>18178</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>40117</v>
+        <v>38336</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>35040</v>
+        <v>35201</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>67875</v>
+        <v>66905</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>30117</v>
+        <v>30219</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>55429</v>
+        <v>55503</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>49012</v>
+        <v>48923</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>88523</v>
+        <v>88298</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23497</v>
+        <v>23257</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>30061</v>
+        <v>31526</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23189</v>
+        <v>24262</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>33870</v>
+        <v>33253</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>40549</v>
+        <v>39301</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>67068</v>
+        <v>68012</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>63675</v>
+        <v>66241</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>91777</v>
+        <v>93274</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>55157</v>
+        <v>57074</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>90498</v>
+        <v>89658</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>82064</v>
+        <v>82400</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>119157</v>
+        <v>119281</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>91480</v>
+        <v>92829</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>98712</v>
+        <v>98133</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>127848</v>
+        <v>128528</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>224840</v>
+        <v>220999</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>238236</v>
+        <v>238163</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>288087</v>
+        <v>290653</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>331366</v>
+        <v>329122</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>350998</v>
+        <v>352730</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>430047</v>
+        <v>426577</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>139574</v>
+        <v>139888</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>140587</v>
+        <v>141384</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>175428</v>
+        <v>177902</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>287162</v>
+        <v>285280</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>302886</v>
+        <v>305656</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>342515</v>
+        <v>344884</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>410136</v>
+        <v>406733</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>428115</v>
+        <v>426407</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>502619</v>
+        <v>502269</v>
       </c>
     </row>
     <row r="36">
